--- a/test/bottomtemp/bottomtemp.xlsx
+++ b/test/bottomtemp/bottomtemp.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbest/github/iea-uploader/test/bottomtemp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{350D1AC0-32BB-644B-AB0E-11CC46EE14E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A51B463-D356-154A-BA0F-682BAE1400BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1500" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="8440" yWindow="1500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bot_temp_GOM" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="7">
   <si>
     <t>Time</t>
   </si>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -883,10 +883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C687"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C689"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
+      <selection activeCell="C689" sqref="C689"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -8447,13 +8449,35 @@
         <v>6.9851000000000001</v>
       </c>
     </row>
+    <row r="688" spans="1:3">
+      <c r="A688">
+        <v>2030</v>
+      </c>
+      <c r="B688" t="s">
+        <v>6</v>
+      </c>
+      <c r="C688">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689">
+        <v>2030</v>
+      </c>
+      <c r="B689" t="s">
+        <v>6</v>
+      </c>
+      <c r="C689">
+        <v>9.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C479"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13735,7 +13759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1194"/>
   <sheetViews>
     <sheetView topLeftCell="A1157" workbookViewId="0">
@@ -26884,7 +26908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
